--- a/natmiOut/YoungD4/LR-pairs_lrc2p/App-Ncstn.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/App-Ncstn.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>126.165566641596</v>
+        <v>126.9318136666667</v>
       </c>
       <c r="H2">
-        <v>126.165566641596</v>
+        <v>380.795441</v>
       </c>
       <c r="I2">
-        <v>0.2013186498944311</v>
+        <v>0.1973293860115714</v>
       </c>
       <c r="J2">
-        <v>0.2013186498944311</v>
+        <v>0.1973293860115715</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>24.3960536932213</v>
+        <v>24.455837</v>
       </c>
       <c r="N2">
-        <v>24.3960536932213</v>
+        <v>73.36751100000001</v>
       </c>
       <c r="O2">
-        <v>0.1567821164285728</v>
+        <v>0.1553502885444182</v>
       </c>
       <c r="P2">
-        <v>0.1567821164285728</v>
+        <v>0.1553502885444182</v>
       </c>
       <c r="Q2">
-        <v>3077.941938024067</v>
+        <v>3104.223745146372</v>
       </c>
       <c r="R2">
-        <v>3077.941938024067</v>
+        <v>27938.01370631735</v>
       </c>
       <c r="S2">
-        <v>0.03156316400699177</v>
+        <v>0.0306551770551905</v>
       </c>
       <c r="T2">
-        <v>0.03156316400699177</v>
+        <v>0.03065517705519051</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>126.165566641596</v>
+        <v>126.9318136666667</v>
       </c>
       <c r="H3">
-        <v>126.165566641596</v>
+        <v>380.795441</v>
       </c>
       <c r="I3">
-        <v>0.2013186498944311</v>
+        <v>0.1973293860115714</v>
       </c>
       <c r="J3">
-        <v>0.2013186498944311</v>
+        <v>0.1973293860115715</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>33.2826620823591</v>
+        <v>33.36516466666667</v>
       </c>
       <c r="N3">
-        <v>33.2826620823591</v>
+        <v>100.095494</v>
       </c>
       <c r="O3">
-        <v>0.2138922248354937</v>
+        <v>0.2119448194841458</v>
       </c>
       <c r="P3">
-        <v>0.2138922248354937</v>
+        <v>0.2119448194841458</v>
       </c>
       <c r="Q3">
-        <v>4199.125920961597</v>
+        <v>4235.100864426983</v>
       </c>
       <c r="R3">
-        <v>4199.125920961597</v>
+        <v>38115.90777984286</v>
       </c>
       <c r="S3">
-        <v>0.04306049392679771</v>
+        <v>0.04182294109713983</v>
       </c>
       <c r="T3">
-        <v>0.04306049392679771</v>
+        <v>0.04182294109713984</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>126.165566641596</v>
+        <v>126.9318136666667</v>
       </c>
       <c r="H4">
-        <v>126.165566641596</v>
+        <v>380.795441</v>
       </c>
       <c r="I4">
-        <v>0.2013186498944311</v>
+        <v>0.1973293860115714</v>
       </c>
       <c r="J4">
-        <v>0.2013186498944311</v>
+        <v>0.1973293860115715</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>42.9802676779049</v>
+        <v>43.331795</v>
       </c>
       <c r="N4">
-        <v>42.9802676779049</v>
+        <v>129.995385</v>
       </c>
       <c r="O4">
-        <v>0.2762142359557472</v>
+        <v>0.2752556314632608</v>
       </c>
       <c r="P4">
-        <v>0.2762142359557472</v>
+        <v>0.2752556314632608</v>
       </c>
       <c r="Q4">
-        <v>5422.629825990345</v>
+        <v>5500.183328782198</v>
       </c>
       <c r="R4">
-        <v>5422.629825990345</v>
+        <v>49501.64995903978</v>
       </c>
       <c r="S4">
-        <v>0.05560707706423286</v>
+        <v>0.05431602475287264</v>
       </c>
       <c r="T4">
-        <v>0.05560707706423286</v>
+        <v>0.05431602475287264</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>126.165566641596</v>
+        <v>126.9318136666667</v>
       </c>
       <c r="H5">
-        <v>126.165566641596</v>
+        <v>380.795441</v>
       </c>
       <c r="I5">
-        <v>0.2013186498944311</v>
+        <v>0.1973293860115714</v>
       </c>
       <c r="J5">
-        <v>0.2013186498944311</v>
+        <v>0.1973293860115715</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>45.5418339071618</v>
+        <v>45.91844699999999</v>
       </c>
       <c r="N5">
-        <v>45.5418339071618</v>
+        <v>137.755341</v>
       </c>
       <c r="O5">
-        <v>0.2926762334511228</v>
+        <v>0.2916867654524183</v>
       </c>
       <c r="P5">
-        <v>0.2926762334511228</v>
+        <v>0.2916867654524183</v>
       </c>
       <c r="Q5">
-        <v>5745.811280794519</v>
+        <v>5828.511758466708</v>
       </c>
       <c r="R5">
-        <v>5745.811280794519</v>
+        <v>52456.60582620037</v>
       </c>
       <c r="S5">
-        <v>0.05892118417456738</v>
+        <v>0.05755837033442695</v>
       </c>
       <c r="T5">
-        <v>0.05892118417456738</v>
+        <v>0.05755837033442696</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>126.165566641596</v>
+        <v>126.9318136666667</v>
       </c>
       <c r="H6">
-        <v>126.165566641596</v>
+        <v>380.795441</v>
       </c>
       <c r="I6">
-        <v>0.2013186498944311</v>
+        <v>0.1973293860115714</v>
       </c>
       <c r="J6">
-        <v>0.2013186498944311</v>
+        <v>0.1973293860115715</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.40400702208618</v>
+        <v>10.35258366666667</v>
       </c>
       <c r="N6">
-        <v>9.40400702208618</v>
+        <v>31.057751</v>
       </c>
       <c r="O6">
-        <v>0.06043518932906362</v>
+        <v>0.06576249505575693</v>
       </c>
       <c r="P6">
-        <v>0.06043518932906362</v>
+        <v>0.06576249505575693</v>
       </c>
       <c r="Q6">
-        <v>1186.461874643051</v>
+        <v>1314.07222094591</v>
       </c>
       <c r="R6">
-        <v>1186.461874643051</v>
+        <v>11826.64998851319</v>
       </c>
       <c r="S6">
-        <v>0.01216673072184142</v>
+        <v>0.01297687277194152</v>
       </c>
       <c r="T6">
-        <v>0.01216673072184142</v>
+        <v>0.01297687277194152</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>151.019038018539</v>
+        <v>152.3944216666667</v>
       </c>
       <c r="H7">
-        <v>151.019038018539</v>
+        <v>457.183265</v>
       </c>
       <c r="I7">
-        <v>0.2409765964798859</v>
+        <v>0.2369137948193439</v>
       </c>
       <c r="J7">
-        <v>0.2409765964798859</v>
+        <v>0.2369137948193439</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>24.3960536932213</v>
+        <v>24.455837</v>
       </c>
       <c r="N7">
-        <v>24.3960536932213</v>
+        <v>73.36751100000001</v>
       </c>
       <c r="O7">
-        <v>0.1567821164285728</v>
+        <v>0.1553502885444182</v>
       </c>
       <c r="P7">
-        <v>0.1567821164285728</v>
+        <v>0.1553502885444182</v>
       </c>
       <c r="Q7">
-        <v>3684.268560198906</v>
+        <v>3726.933135989269</v>
       </c>
       <c r="R7">
-        <v>3684.268560198906</v>
+        <v>33542.39822390342</v>
       </c>
       <c r="S7">
-        <v>0.03778082080587067</v>
+        <v>0.03680462638533816</v>
       </c>
       <c r="T7">
-        <v>0.03778082080587067</v>
+        <v>0.03680462638533817</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>151.019038018539</v>
+        <v>152.3944216666667</v>
       </c>
       <c r="H8">
-        <v>151.019038018539</v>
+        <v>457.183265</v>
       </c>
       <c r="I8">
-        <v>0.2409765964798859</v>
+        <v>0.2369137948193439</v>
       </c>
       <c r="J8">
-        <v>0.2409765964798859</v>
+        <v>0.2369137948193439</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>33.2826620823591</v>
+        <v>33.36516466666667</v>
       </c>
       <c r="N8">
-        <v>33.2826620823591</v>
+        <v>100.095494</v>
       </c>
       <c r="O8">
-        <v>0.2138922248354937</v>
+        <v>0.2119448194841458</v>
       </c>
       <c r="P8">
-        <v>0.2138922248354937</v>
+        <v>0.2119448194841458</v>
       </c>
       <c r="Q8">
-        <v>5026.315610373976</v>
+        <v>5084.664973189767</v>
       </c>
       <c r="R8">
-        <v>5026.315610373976</v>
+        <v>45761.98475870791</v>
       </c>
       <c r="S8">
-        <v>0.05154302035436781</v>
+        <v>0.05021265147628979</v>
       </c>
       <c r="T8">
-        <v>0.05154302035436781</v>
+        <v>0.0502126514762898</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>151.019038018539</v>
+        <v>152.3944216666667</v>
       </c>
       <c r="H9">
-        <v>151.019038018539</v>
+        <v>457.183265</v>
       </c>
       <c r="I9">
-        <v>0.2409765964798859</v>
+        <v>0.2369137948193439</v>
       </c>
       <c r="J9">
-        <v>0.2409765964798859</v>
+        <v>0.2369137948193439</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>42.9802676779049</v>
+        <v>43.331795</v>
       </c>
       <c r="N9">
-        <v>42.9802676779049</v>
+        <v>129.995385</v>
       </c>
       <c r="O9">
-        <v>0.2762142359557472</v>
+        <v>0.2752556314632608</v>
       </c>
       <c r="P9">
-        <v>0.2762142359557472</v>
+        <v>0.2752556314632608</v>
       </c>
       <c r="Q9">
-        <v>6490.838678496502</v>
+        <v>6603.523838803558</v>
       </c>
       <c r="R9">
-        <v>6490.838678496502</v>
+        <v>59431.71454923203</v>
       </c>
       <c r="S9">
-        <v>0.06656116647990809</v>
+        <v>0.06521185619535591</v>
       </c>
       <c r="T9">
-        <v>0.06656116647990809</v>
+        <v>0.06521185619535591</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>151.019038018539</v>
+        <v>152.3944216666667</v>
       </c>
       <c r="H10">
-        <v>151.019038018539</v>
+        <v>457.183265</v>
       </c>
       <c r="I10">
-        <v>0.2409765964798859</v>
+        <v>0.2369137948193439</v>
       </c>
       <c r="J10">
-        <v>0.2409765964798859</v>
+        <v>0.2369137948193439</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>45.5418339071618</v>
+        <v>45.91844699999999</v>
       </c>
       <c r="N10">
-        <v>45.5418339071618</v>
+        <v>137.755341</v>
       </c>
       <c r="O10">
-        <v>0.2926762334511228</v>
+        <v>0.2916867654524183</v>
       </c>
       <c r="P10">
-        <v>0.2926762334511228</v>
+        <v>0.2916867654524183</v>
       </c>
       <c r="Q10">
-        <v>6877.683946259656</v>
+        <v>6997.715174396483</v>
       </c>
       <c r="R10">
-        <v>6877.683946259656</v>
+        <v>62979.43656956836</v>
       </c>
       <c r="S10">
-        <v>0.0705281226076041</v>
+        <v>0.06910461850191231</v>
       </c>
       <c r="T10">
-        <v>0.0705281226076041</v>
+        <v>0.06910461850191232</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>151.019038018539</v>
+        <v>152.3944216666667</v>
       </c>
       <c r="H11">
-        <v>151.019038018539</v>
+        <v>457.183265</v>
       </c>
       <c r="I11">
-        <v>0.2409765964798859</v>
+        <v>0.2369137948193439</v>
       </c>
       <c r="J11">
-        <v>0.2409765964798859</v>
+        <v>0.2369137948193439</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.40400702208618</v>
+        <v>10.35258366666667</v>
       </c>
       <c r="N11">
-        <v>9.40400702208618</v>
+        <v>31.057751</v>
       </c>
       <c r="O11">
-        <v>0.06043518932906362</v>
+        <v>0.06576249505575693</v>
       </c>
       <c r="P11">
-        <v>0.06043518932906362</v>
+        <v>0.06576249505575693</v>
       </c>
       <c r="Q11">
-        <v>1420.18409399504</v>
+        <v>1577.676000637446</v>
       </c>
       <c r="R11">
-        <v>1420.18409399504</v>
+        <v>14199.08400573702</v>
       </c>
       <c r="S11">
-        <v>0.01456346623213527</v>
+        <v>0.01558004226044771</v>
       </c>
       <c r="T11">
-        <v>0.01456346623213527</v>
+        <v>0.01558004226044772</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>201.01781154489</v>
+        <v>206.573929</v>
       </c>
       <c r="H12">
-        <v>201.01781154489</v>
+        <v>619.7217869999999</v>
       </c>
       <c r="I12">
-        <v>0.3207581553524144</v>
+        <v>0.321141764212203</v>
       </c>
       <c r="J12">
-        <v>0.3207581553524144</v>
+        <v>0.321141764212203</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>24.3960536932213</v>
+        <v>24.455837</v>
       </c>
       <c r="N12">
-        <v>24.3960536932213</v>
+        <v>73.36751100000001</v>
       </c>
       <c r="O12">
-        <v>0.1567821164285728</v>
+        <v>0.1553502885444182</v>
       </c>
       <c r="P12">
-        <v>0.1567821164285728</v>
+        <v>0.1553502885444182</v>
       </c>
       <c r="Q12">
-        <v>4904.041323742978</v>
+        <v>5051.938336073574</v>
       </c>
       <c r="R12">
-        <v>4904.041323742978</v>
+        <v>45467.44502466216</v>
       </c>
       <c r="S12">
-        <v>0.05028914245787647</v>
+        <v>0.04988946573402925</v>
       </c>
       <c r="T12">
-        <v>0.05028914245787647</v>
+        <v>0.04988946573402925</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>201.01781154489</v>
+        <v>206.573929</v>
       </c>
       <c r="H13">
-        <v>201.01781154489</v>
+        <v>619.7217869999999</v>
       </c>
       <c r="I13">
-        <v>0.3207581553524144</v>
+        <v>0.321141764212203</v>
       </c>
       <c r="J13">
-        <v>0.3207581553524144</v>
+        <v>0.321141764212203</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>33.2826620823591</v>
+        <v>33.36516466666667</v>
       </c>
       <c r="N13">
-        <v>33.2826620823591</v>
+        <v>100.095494</v>
       </c>
       <c r="O13">
-        <v>0.2138922248354937</v>
+        <v>0.2119448194841458</v>
       </c>
       <c r="P13">
-        <v>0.2138922248354937</v>
+        <v>0.2119448194841458</v>
       </c>
       <c r="Q13">
-        <v>6690.407894183919</v>
+        <v>6892.373156925308</v>
       </c>
       <c r="R13">
-        <v>6690.407894183919</v>
+        <v>62031.35841232778</v>
       </c>
       <c r="S13">
-        <v>0.06860767548245686</v>
+        <v>0.06806433324477548</v>
       </c>
       <c r="T13">
-        <v>0.06860767548245686</v>
+        <v>0.06806433324477548</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>201.01781154489</v>
+        <v>206.573929</v>
       </c>
       <c r="H14">
-        <v>201.01781154489</v>
+        <v>619.7217869999999</v>
       </c>
       <c r="I14">
-        <v>0.3207581553524144</v>
+        <v>0.321141764212203</v>
       </c>
       <c r="J14">
-        <v>0.3207581553524144</v>
+        <v>0.321141764212203</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>42.9802676779049</v>
+        <v>43.331795</v>
       </c>
       <c r="N14">
-        <v>42.9802676779049</v>
+        <v>129.995385</v>
       </c>
       <c r="O14">
-        <v>0.2762142359557472</v>
+        <v>0.2752556314632608</v>
       </c>
       <c r="P14">
-        <v>0.2762142359557472</v>
+        <v>0.2752556314632608</v>
       </c>
       <c r="Q14">
-        <v>8639.799348226014</v>
+        <v>8951.219143772554</v>
       </c>
       <c r="R14">
-        <v>8639.799348226014</v>
+        <v>80560.97229395299</v>
       </c>
       <c r="S14">
-        <v>0.08859796880724202</v>
+        <v>0.08839607909745556</v>
       </c>
       <c r="T14">
-        <v>0.08859796880724202</v>
+        <v>0.08839607909745555</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>201.01781154489</v>
+        <v>206.573929</v>
       </c>
       <c r="H15">
-        <v>201.01781154489</v>
+        <v>619.7217869999999</v>
       </c>
       <c r="I15">
-        <v>0.3207581553524144</v>
+        <v>0.321141764212203</v>
       </c>
       <c r="J15">
-        <v>0.3207581553524144</v>
+        <v>0.321141764212203</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>45.5418339071618</v>
+        <v>45.91844699999999</v>
       </c>
       <c r="N15">
-        <v>45.5418339071618</v>
+        <v>137.755341</v>
       </c>
       <c r="O15">
-        <v>0.2926762334511228</v>
+        <v>0.2916867654524183</v>
       </c>
       <c r="P15">
-        <v>0.2926762334511228</v>
+        <v>0.2916867654524183</v>
       </c>
       <c r="Q15">
-        <v>9154.719785758532</v>
+        <v>9485.554010368262</v>
       </c>
       <c r="R15">
-        <v>9154.719785758532</v>
+        <v>85369.98609331435</v>
       </c>
       <c r="S15">
-        <v>0.09387828875727476</v>
+        <v>0.09367280245474068</v>
       </c>
       <c r="T15">
-        <v>0.09387828875727476</v>
+        <v>0.09367280245474068</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>201.01781154489</v>
+        <v>206.573929</v>
       </c>
       <c r="H16">
-        <v>201.01781154489</v>
+        <v>619.7217869999999</v>
       </c>
       <c r="I16">
-        <v>0.3207581553524144</v>
+        <v>0.321141764212203</v>
       </c>
       <c r="J16">
-        <v>0.3207581553524144</v>
+        <v>0.321141764212203</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.40400702208618</v>
+        <v>10.35258366666667</v>
       </c>
       <c r="N16">
-        <v>9.40400702208618</v>
+        <v>31.057751</v>
       </c>
       <c r="O16">
-        <v>0.06043518932906362</v>
+        <v>0.06576249505575693</v>
       </c>
       <c r="P16">
-        <v>0.06043518932906362</v>
+        <v>0.06576249505575693</v>
       </c>
       <c r="Q16">
-        <v>1890.372911332542</v>
+        <v>2138.57388332456</v>
       </c>
       <c r="R16">
-        <v>1890.372911332542</v>
+        <v>19247.16494992104</v>
       </c>
       <c r="S16">
-        <v>0.01938507984756437</v>
+        <v>0.02111908368120206</v>
       </c>
       <c r="T16">
-        <v>0.01938507984756437</v>
+        <v>0.02111908368120206</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>133.020621672466</v>
+        <v>141.7744496666667</v>
       </c>
       <c r="H17">
-        <v>133.020621672466</v>
+        <v>425.323349</v>
       </c>
       <c r="I17">
-        <v>0.2122570577382063</v>
+        <v>0.2204038869114384</v>
       </c>
       <c r="J17">
-        <v>0.2122570577382063</v>
+        <v>0.2204038869114385</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>24.3960536932213</v>
+        <v>24.455837</v>
       </c>
       <c r="N17">
-        <v>24.3960536932213</v>
+        <v>73.36751100000001</v>
       </c>
       <c r="O17">
-        <v>0.1567821164285728</v>
+        <v>0.1553502885444182</v>
       </c>
       <c r="P17">
-        <v>0.1567821164285728</v>
+        <v>0.1553502885444182</v>
       </c>
       <c r="Q17">
-        <v>3245.178228627158</v>
+        <v>3467.212831812705</v>
       </c>
       <c r="R17">
-        <v>3245.178228627158</v>
+        <v>31204.91548631434</v>
       </c>
       <c r="S17">
-        <v>0.03327811073909775</v>
+        <v>0.03423980742800328</v>
       </c>
       <c r="T17">
-        <v>0.03327811073909775</v>
+        <v>0.03423980742800329</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>133.020621672466</v>
+        <v>141.7744496666667</v>
       </c>
       <c r="H18">
-        <v>133.020621672466</v>
+        <v>425.323349</v>
       </c>
       <c r="I18">
-        <v>0.2122570577382063</v>
+        <v>0.2204038869114384</v>
       </c>
       <c r="J18">
-        <v>0.2122570577382063</v>
+        <v>0.2204038869114385</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>33.2826620823591</v>
+        <v>33.36516466666667</v>
       </c>
       <c r="N18">
-        <v>33.2826620823591</v>
+        <v>100.095494</v>
       </c>
       <c r="O18">
-        <v>0.2138922248354937</v>
+        <v>0.2119448194841458</v>
       </c>
       <c r="P18">
-        <v>0.2138922248354937</v>
+        <v>0.2119448194841458</v>
       </c>
       <c r="Q18">
-        <v>4427.28040111002</v>
+        <v>4730.327858654378</v>
       </c>
       <c r="R18">
-        <v>4427.28040111002</v>
+        <v>42572.95072788941</v>
       </c>
       <c r="S18">
-        <v>0.0454001343166608</v>
+        <v>0.0467134620250489</v>
       </c>
       <c r="T18">
-        <v>0.0454001343166608</v>
+        <v>0.04671346202504891</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>133.020621672466</v>
+        <v>141.7744496666667</v>
       </c>
       <c r="H19">
-        <v>133.020621672466</v>
+        <v>425.323349</v>
       </c>
       <c r="I19">
-        <v>0.2122570577382063</v>
+        <v>0.2204038869114384</v>
       </c>
       <c r="J19">
-        <v>0.2122570577382063</v>
+        <v>0.2204038869114385</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>42.9802676779049</v>
+        <v>43.331795</v>
       </c>
       <c r="N19">
-        <v>42.9802676779049</v>
+        <v>129.995385</v>
       </c>
       <c r="O19">
-        <v>0.2762142359557472</v>
+        <v>0.2752556314632608</v>
       </c>
       <c r="P19">
-        <v>0.2762142359557472</v>
+        <v>0.2752556314632608</v>
       </c>
       <c r="Q19">
-        <v>5717.261926163907</v>
+        <v>6143.341389193818</v>
       </c>
       <c r="R19">
-        <v>5717.261926163907</v>
+        <v>55290.07250274436</v>
       </c>
       <c r="S19">
-        <v>0.05862842102937359</v>
+        <v>0.06066741106876512</v>
       </c>
       <c r="T19">
-        <v>0.05862842102937359</v>
+        <v>0.06066741106876511</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>133.020621672466</v>
+        <v>141.7744496666667</v>
       </c>
       <c r="H20">
-        <v>133.020621672466</v>
+        <v>425.323349</v>
       </c>
       <c r="I20">
-        <v>0.2122570577382063</v>
+        <v>0.2204038869114384</v>
       </c>
       <c r="J20">
-        <v>0.2122570577382063</v>
+        <v>0.2204038869114385</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>45.5418339071618</v>
+        <v>45.91844699999999</v>
       </c>
       <c r="N20">
-        <v>45.5418339071618</v>
+        <v>137.755341</v>
       </c>
       <c r="O20">
-        <v>0.2926762334511228</v>
+        <v>0.2916867654524183</v>
       </c>
       <c r="P20">
-        <v>0.2926762334511228</v>
+        <v>0.2916867654524183</v>
       </c>
       <c r="Q20">
-        <v>6058.003058434854</v>
+        <v>6510.062552973</v>
       </c>
       <c r="R20">
-        <v>6058.003058434854</v>
+        <v>58590.56297675701</v>
       </c>
       <c r="S20">
-        <v>0.06212259618223573</v>
+        <v>0.06428889686633807</v>
       </c>
       <c r="T20">
-        <v>0.06212259618223573</v>
+        <v>0.06428889686633808</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>133.020621672466</v>
+        <v>141.7744496666667</v>
       </c>
       <c r="H21">
-        <v>133.020621672466</v>
+        <v>425.323349</v>
       </c>
       <c r="I21">
-        <v>0.2122570577382063</v>
+        <v>0.2204038869114384</v>
       </c>
       <c r="J21">
-        <v>0.2122570577382063</v>
+        <v>0.2204038869114385</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>9.40400702208618</v>
+        <v>10.35258366666667</v>
       </c>
       <c r="N21">
-        <v>9.40400702208618</v>
+        <v>31.057751</v>
       </c>
       <c r="O21">
-        <v>0.06043518932906362</v>
+        <v>0.06576249505575693</v>
       </c>
       <c r="P21">
-        <v>0.06043518932906362</v>
+        <v>0.06576249505575693</v>
       </c>
       <c r="Q21">
-        <v>1250.92686029014</v>
+        <v>1467.731851969789</v>
       </c>
       <c r="R21">
-        <v>1250.92686029014</v>
+        <v>13209.5866677281</v>
       </c>
       <c r="S21">
-        <v>0.01282779547083849</v>
+        <v>0.01449430952328308</v>
       </c>
       <c r="T21">
-        <v>0.01282779547083849</v>
+        <v>0.01449430952328308</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>15.4728331098994</v>
+        <v>15.57379533333333</v>
       </c>
       <c r="H22">
-        <v>15.4728331098994</v>
+        <v>46.721386</v>
       </c>
       <c r="I22">
-        <v>0.02468954053506238</v>
+        <v>0.02421116804544314</v>
       </c>
       <c r="J22">
-        <v>0.02468954053506238</v>
+        <v>0.02421116804544315</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>24.3960536932213</v>
+        <v>24.455837</v>
       </c>
       <c r="N22">
-        <v>24.3960536932213</v>
+        <v>73.36751100000001</v>
       </c>
       <c r="O22">
-        <v>0.1567821164285728</v>
+        <v>0.1553502885444182</v>
       </c>
       <c r="P22">
-        <v>0.1567821164285728</v>
+        <v>0.1553502885444182</v>
       </c>
       <c r="Q22">
-        <v>377.4760673353581</v>
+        <v>380.8702001433606</v>
       </c>
       <c r="R22">
-        <v>377.4760673353581</v>
+        <v>3427.831801290246</v>
       </c>
       <c r="S22">
-        <v>0.003870878418736117</v>
+        <v>0.00376121194185699</v>
       </c>
       <c r="T22">
-        <v>0.003870878418736117</v>
+        <v>0.003761211941856991</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>15.4728331098994</v>
+        <v>15.57379533333333</v>
       </c>
       <c r="H23">
-        <v>15.4728331098994</v>
+        <v>46.721386</v>
       </c>
       <c r="I23">
-        <v>0.02468954053506238</v>
+        <v>0.02421116804544314</v>
       </c>
       <c r="J23">
-        <v>0.02468954053506238</v>
+        <v>0.02421116804544315</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>33.2826620823591</v>
+        <v>33.36516466666667</v>
       </c>
       <c r="N23">
-        <v>33.2826620823591</v>
+        <v>100.095494</v>
       </c>
       <c r="O23">
-        <v>0.2138922248354937</v>
+        <v>0.2119448194841458</v>
       </c>
       <c r="P23">
-        <v>0.2138922248354937</v>
+        <v>0.2119448194841458</v>
       </c>
       <c r="Q23">
-        <v>514.9770758535192</v>
+        <v>519.6222457816315</v>
       </c>
       <c r="R23">
-        <v>514.9770758535192</v>
+        <v>4676.600212034684</v>
       </c>
       <c r="S23">
-        <v>0.0052809007552106</v>
+        <v>0.005131431640891766</v>
       </c>
       <c r="T23">
-        <v>0.0052809007552106</v>
+        <v>0.005131431640891766</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>15.4728331098994</v>
+        <v>15.57379533333333</v>
       </c>
       <c r="H24">
-        <v>15.4728331098994</v>
+        <v>46.721386</v>
       </c>
       <c r="I24">
-        <v>0.02468954053506238</v>
+        <v>0.02421116804544314</v>
       </c>
       <c r="J24">
-        <v>0.02468954053506238</v>
+        <v>0.02421116804544315</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>42.9802676779049</v>
+        <v>43.331795</v>
       </c>
       <c r="N24">
-        <v>42.9802676779049</v>
+        <v>129.995385</v>
       </c>
       <c r="O24">
-        <v>0.2762142359557472</v>
+        <v>0.2752556314632608</v>
       </c>
       <c r="P24">
-        <v>0.2762142359557472</v>
+        <v>0.2752556314632608</v>
       </c>
       <c r="Q24">
-        <v>665.0265087990259</v>
+        <v>674.8405067559565</v>
       </c>
       <c r="R24">
-        <v>665.0265087990259</v>
+        <v>6073.564560803609</v>
       </c>
       <c r="S24">
-        <v>0.006819602574990707</v>
+        <v>0.006664260348811575</v>
       </c>
       <c r="T24">
-        <v>0.006819602574990707</v>
+        <v>0.006664260348811574</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>15.4728331098994</v>
+        <v>15.57379533333333</v>
       </c>
       <c r="H25">
-        <v>15.4728331098994</v>
+        <v>46.721386</v>
       </c>
       <c r="I25">
-        <v>0.02468954053506238</v>
+        <v>0.02421116804544314</v>
       </c>
       <c r="J25">
-        <v>0.02468954053506238</v>
+        <v>0.02421116804544315</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>45.5418339071618</v>
+        <v>45.91844699999999</v>
       </c>
       <c r="N25">
-        <v>45.5418339071618</v>
+        <v>137.755341</v>
       </c>
       <c r="O25">
-        <v>0.2926762334511228</v>
+        <v>0.2916867654524183</v>
       </c>
       <c r="P25">
-        <v>0.2926762334511228</v>
+        <v>0.2916867654524183</v>
       </c>
       <c r="Q25">
-        <v>704.6611955642722</v>
+        <v>715.1244956025138</v>
       </c>
       <c r="R25">
-        <v>704.6611955642722</v>
+        <v>6436.120460422625</v>
       </c>
       <c r="S25">
-        <v>0.007226041729440877</v>
+        <v>0.007062077295000259</v>
       </c>
       <c r="T25">
-        <v>0.007226041729440877</v>
+        <v>0.007062077295000259</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>15.4728331098994</v>
+        <v>15.57379533333333</v>
       </c>
       <c r="H26">
-        <v>15.4728331098994</v>
+        <v>46.721386</v>
       </c>
       <c r="I26">
-        <v>0.02468954053506238</v>
+        <v>0.02421116804544314</v>
       </c>
       <c r="J26">
-        <v>0.02468954053506238</v>
+        <v>0.02421116804544315</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>9.40400702208618</v>
+        <v>10.35258366666667</v>
       </c>
       <c r="N26">
-        <v>9.40400702208618</v>
+        <v>31.057751</v>
       </c>
       <c r="O26">
-        <v>0.06043518932906362</v>
+        <v>0.06576249505575693</v>
       </c>
       <c r="P26">
-        <v>0.06043518932906362</v>
+        <v>0.06576249505575693</v>
       </c>
       <c r="Q26">
-        <v>145.5066312170615</v>
+        <v>161.2290191958762</v>
       </c>
       <c r="R26">
-        <v>145.5066312170615</v>
+        <v>1451.061172762886</v>
       </c>
       <c r="S26">
-        <v>0.001492117056684086</v>
+        <v>0.001592186818882555</v>
       </c>
       <c r="T26">
-        <v>0.001492117056684086</v>
+        <v>0.001592186818882555</v>
       </c>
     </row>
   </sheetData>
